--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.104</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.768</v>
+        <v>16.136</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.133</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.197</v>
+        <v>14.09</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.249</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.945</v>
+        <v>4.524</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.802022469048988</v>
+        <v>7.700051158234348</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>21.44618724551402</v>
+        <v>9.127784440187236</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.96643318895121</v>
+        <v>14.10316257538255</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.337675375030495</v>
+        <v>-1.241039506883578</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.3748015636485</v>
+        <v>13.66204187953622</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.70863672391528</v>
+        <v>15.33091677617775</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>11.29545938659625</v>
+        <v>2.58612230335649</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.22214160265525</v>
+        <v>22.67576526308483</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>35.39195729511825</v>
+        <v>25.39261147927577</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.23178688074045</v>
+        <v>21.79594771982111</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36.88287398635479</v>
+        <v>26.01936382082946</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>41.77098690679462</v>
+        <v>29.81263597775657</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10.94570956067819</v>
+        <v>5.709587311770672</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.59747773081596</v>
+        <v>15.26318701834473</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>38.1267379926531</v>
+        <v>17.85426874685627</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.69643970869723</v>
+        <v>10.95153184615727</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.40184498642121</v>
+        <v>25.92471969909732</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.118416194178</v>
+        <v>40.4836145632548</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.005638729004297</v>
+        <v>0.8754446735948243</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.83311560812864</v>
+        <v>15.46256018972014</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.50917942919283</v>
+        <v>29.51783064029391</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>14.15105745981766</v>
+        <v>2.89084455087141</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>32.05675364863242</v>
+        <v>26.61648738605252</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>38.48935452291631</v>
+        <v>53.7766353580129</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31.57328670755784</v>
+        <v>30.93625840253461</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>39.91580174815246</v>
+        <v>52.02634070174042</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>45.05726610036012</v>
+        <v>70.68182431570057</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>13.65342030090444</v>
+        <v>5.959674261403151</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.39395614062773</v>
+        <v>42.26165725336652</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>41.59522126193804</v>
+        <v>58.40563369975553</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>15.89220319426935</v>
+        <v>14.06425112498825</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>31.80317188672596</v>
+        <v>33.57187468039218</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.86527116024752</v>
+        <v>43.71608482740564</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>11.1372332710355</v>
+        <v>0.07545900098322278</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.56699987291152</v>
+        <v>24.83420699570181</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35.48746016462383</v>
+        <v>35.60700479815915</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>20.80701101913696</v>
+        <v>2.965738708596003</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.99901309220225</v>
+        <v>40.41291604752479</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>46.7988181515639</v>
+        <v>56.1718559461127</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>40.15020784756542</v>
+        <v>55.1675196669575</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>48.82485982124784</v>
+        <v>73.15486841192421</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>54.05778107861183</v>
+        <v>80.31823051447076</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>19.57723461621066</v>
+        <v>14.86208615067223</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>41.03223476239116</v>
+        <v>57.72846722098294</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>49.77537688029228</v>
+        <v>64.84883174677827</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.97429687371687</v>
+        <v>6.157503439995548</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.16623586816211</v>
+        <v>31.6058893708494</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>30.42096851772698</v>
+        <v>40.70716490926966</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.534764470874889</v>
+        <v>2.36561616453589</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>24.13552191054684</v>
+        <v>40.75498598193629</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.10151154728722</v>
+        <v>43.08273119575355</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>15.52585456174908</v>
+        <v>6.565896439224407</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>34.0166276670089</v>
+        <v>63.58862733670814</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>39.86899367726094</v>
+        <v>69.21412549624368</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>33.41102509510008</v>
+        <v>58.63605849200727</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>41.04801846950367</v>
+        <v>69.1196494155774</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45.58140353466472</v>
+        <v>63.2846765838064</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>13.72639995186375</v>
+        <v>6.16043921766752</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>33.60020602546421</v>
+        <v>46.8410371627329</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>41.64115394346661</v>
+        <v>54.49468570391167</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.2737023890888</v>
+        <v>8.011478783942191</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.43334086460743</v>
+        <v>34.11194600213641</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.85085593755436</v>
+        <v>40.05651361733243</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8.509704308637293</v>
+        <v>-1.255013867421912</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.79101621910471</v>
+        <v>23.39542383698181</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>31.06789353623883</v>
+        <v>34.45668672467136</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>16.58169058079921</v>
+        <v>0.4838128641899999</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>34.95070523257708</v>
+        <v>42.6564994016207</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>41.02796679214795</v>
+        <v>57.93573777601912</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>34.0180230865402</v>
+        <v>48.58163994975934</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>42.2554807367863</v>
+        <v>64.07631134984975</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>47.03569952142805</v>
+        <v>71.94058910938955</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>14.90825151246195</v>
+        <v>5.810426208758045</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>35.67093799344304</v>
+        <v>54.614609515761</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>43.39337079405042</v>
+        <v>60.71787009846028</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>17.42696842603774</v>
+        <v>9.901341470455609</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.79367015534388</v>
+        <v>37.0302776111306</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>39.54005850180987</v>
+        <v>48.68790416977606</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>13.695168484782</v>
+        <v>-0.9442937180521618</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>31.61637931149862</v>
+        <v>32.55156706660711</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>38.10371284790875</v>
+        <v>42.25543949021417</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>23.32753239357018</v>
+        <v>3.934894599034696</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>42.96838149199496</v>
+        <v>57.26423192679194</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>49.40802167491238</v>
+        <v>78.61647204330515</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>42.68292815307679</v>
+        <v>66.35604538270684</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>51.28055899674209</v>
+        <v>86.25868843557006</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>56.14948845900584</v>
+        <v>90.10818944520933</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>20.94374062172371</v>
+        <v>6.038623311368887</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>43.41738650102266</v>
+        <v>67.46349789828545</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>51.62099650500534</v>
+        <v>73.65139130461189</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>9.502357869523536</v>
+        <v>14.811214348031</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.61158263997944</v>
+        <v>32.24292388965445</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.77575012391847</v>
+        <v>37.67949023630142</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6.787377353619344</v>
+        <v>1.425695060377461</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>23.32896183928728</v>
+        <v>33.69040479164261</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.19834621088228</v>
+        <v>34.95002238718722</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.77093974227196</v>
+        <v>5.514246323003942</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>33.1797568576522</v>
+        <v>60.36350793673323</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>38.94275948581792</v>
+        <v>58.40436992506967</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>32.71875787399222</v>
+        <v>47.42984598883044</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>40.26705552943178</v>
+        <v>57.99835176807046</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>44.72892007721499</v>
+        <v>54.92900073442594</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>13.28787892099199</v>
+        <v>11.73706073435098</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>32.84978402331901</v>
+        <v>37.19714131690419</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>40.79891606997748</v>
+        <v>40.51852015559871</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>12.5801513526983</v>
+        <v>18.24687860855803</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>27.69164277712562</v>
+        <v>43.22873829239795</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>33.013221365522</v>
+        <v>44.536330925871</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>8.551681450062617</v>
+        <v>3.589578200521839</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>24.81682573986065</v>
+        <v>32.8795481085302</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.99148319885508</v>
+        <v>37.6921453299993</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>16.67406427525776</v>
+        <v>4.698199422851481</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>34.99909370499561</v>
+        <v>56.27821087342501</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>40.98074623111412</v>
+        <v>63.38379270868347</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>34.12643999650235</v>
+        <v>56.24207783326973</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>42.28783997466451</v>
+        <v>68.2744080343749</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>46.98583650894554</v>
+        <v>71.69913510318722</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>15.24259082003356</v>
+        <v>18.9691663909041</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>35.71790913898702</v>
+        <v>56.86989594807348</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>43.34538720138949</v>
+        <v>59.96241056089266</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>17.67725856426297</v>
+        <v>18.23639558319871</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33.98616942889742</v>
+        <v>43.833475607968</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.62709044929318</v>
+        <v>49.22527007581866</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>13.65875706591885</v>
+        <v>1.258890614748402</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>31.55534465134979</v>
+        <v>38.59222849623406</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>37.9241069488872</v>
+        <v>41.07241352442769</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>23.33434329159871</v>
+        <v>3.920444455673724</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>42.92210259028081</v>
+        <v>66.49889162766739</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>49.25777484958569</v>
+        <v>76.13719008236686</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>42.69066128179418</v>
+        <v>73.4994391225792</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>51.20521895649215</v>
+        <v>81.92150598460181</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>56.0098009781134</v>
+        <v>88.10027158071544</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>21.18791391564161</v>
+        <v>16.08761083939902</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>43.39180319828038</v>
+        <v>69.24751708372949</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>51.47357964668174</v>
+        <v>71.85369142791573</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>7.819858727699232</v>
+        <v>10.06347941565192</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>22.13991563320172</v>
+        <v>11.22768745563194</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>27.44683498446263</v>
+        <v>15.97310021009632</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4.319130480601198</v>
+        <v>-0.8233422474568606</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>19.97154156073453</v>
+        <v>12.08710166812959</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>26.05127496768097</v>
+        <v>13.02938079972207</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>12.2328479820434</v>
+        <v>4.854234727536671</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.77884015400468</v>
+        <v>24.49533465245346</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>35.72093040714764</v>
+        <v>26.68075978768132</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.5440414163072</v>
+        <v>21.98273906464042</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37.01840081078176</v>
+        <v>24.86034101737105</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>41.77677068409847</v>
+        <v>32.24249968407278</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>12.00859453103848</v>
+        <v>59.50541615948677</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>30.17107846128678</v>
+        <v>65.50199361414924</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>38.36699076008253</v>
+        <v>60.29916945988782</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>11.32218842158291</v>
+        <v>9.312143373073219</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.68657461596063</v>
+        <v>24.46047803699581</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.19925399223807</v>
+        <v>39.48949551750854</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6.596047498105366</v>
+        <v>0.5733728465592272</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>22.02387819254727</v>
+        <v>10.45840535976843</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.45512800211571</v>
+        <v>27.73807781488697</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>32.18446101722861</v>
+        <v>28.46135445289064</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>38.39670733447611</v>
+        <v>53.67201654922036</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.50471346867772</v>
+        <v>29.13007311237183</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>39.65703428091187</v>
+        <v>44.74604606554861</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>44.66776881268457</v>
+        <v>66.07192063823001</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>14.3322732322594</v>
+        <v>9.831094545500742</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>33.54075812497685</v>
+        <v>41.15835542799113</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>41.43100930467202</v>
+        <v>50.47089623805881</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>16.75490812928668</v>
+        <v>19.71878160479372</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.3060066195559</v>
+        <v>31.01842430737581</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>38.16072147068167</v>
+        <v>42.79844940118555</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>11.9302286580274</v>
+        <v>2.373000955053147</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.94213503785669</v>
+        <v>16.27805927463593</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.6094558134826</v>
+        <v>28.20857081848355</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>21.54010255233044</v>
+        <v>8.849055035215912</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>40.31383080854381</v>
+        <v>40.13227011603125</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>46.89277038258821</v>
+        <v>61.02164704036977</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>40.22715050331534</v>
+        <v>40.88237879943185</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>48.71510865523788</v>
+        <v>57.91163293945088</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>53.81045064308544</v>
+        <v>73.35303564749032</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>20.44157212666167</v>
+        <v>27.94205193573532</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>41.31810428698479</v>
+        <v>56.98298886645577</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>49.73705511259039</v>
+        <v>66.56577394189019</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>10.9209853519402</v>
+        <v>8.470998698190815</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.93100101208893</v>
+        <v>25.32790402430765</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>31.29374462678263</v>
+        <v>29.76741451192397</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>7.690555029546206</v>
+        <v>0.9988543738780074</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>24.152686769844</v>
+        <v>31.80364223833471</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>30.28151171037328</v>
+        <v>36.1581641010708</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>16.06664332492645</v>
+        <v>7.942741589848239</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>34.40612486415209</v>
+        <v>62.70757907643335</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>40.3990639001973</v>
+        <v>60.5233289598316</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>33.77124207474878</v>
+        <v>46.97175118689246</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>41.52533295785414</v>
+        <v>62.61017462304837</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>46.26414720993274</v>
+        <v>64.02710589957906</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>15.06499801632658</v>
+        <v>12.14573264137568</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>34.02285772615762</v>
+        <v>18.65899921219372</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>42.31866476489842</v>
+        <v>18.98327135700653</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>14.91816782301568</v>
+        <v>20.70323902808556</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.97989640838787</v>
+        <v>43.43111220044594</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>35.5099513787609</v>
+        <v>44.57410122950066</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>10.43211265147397</v>
+        <v>3.603165308382483</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>26.68503208948688</v>
+        <v>31.75435566924131</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>33.12234654229169</v>
+        <v>40.68289103408355</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>37.3136087990983</v>
+        <v>58.04778014507112</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>43.53675488363529</v>
+        <v>65.40293199363093</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>36.18802443628978</v>
+        <v>61.65589624130453</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>44.61012691043884</v>
+        <v>72.88030387582934</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>49.59457765592645</v>
+        <v>80.66410153739355</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>17.90643328144812</v>
+        <v>31.39318034827803</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>37.93196679839409</v>
+        <v>62.86923012971513</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>45.87894301422882</v>
+        <v>67.04418881975816</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>19.53784188697473</v>
+        <v>22.14350922509967</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>35.75522468144937</v>
+        <v>42.87977191566803</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>41.6503738056342</v>
+        <v>46.94372147445907</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>14.94764127242108</v>
+        <v>0.2616092673529877</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>32.74571553679599</v>
+        <v>30.46296095975291</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>39.44372819216758</v>
+        <v>37.50124581164101</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>25.00504435437216</v>
+        <v>7.46140475387676</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>44.53832102926794</v>
+        <v>61.00732637746665</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>51.15571071540678</v>
+        <v>71.25146947000717</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>44.10611223000583</v>
+        <v>71.22526682777186</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>52.86916807514854</v>
+        <v>80.31490692089119</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>57.95128356300467</v>
+        <v>82.93705884758036</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>23.25042675859927</v>
+        <v>31.35464917170173</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>44.91311659697629</v>
+        <v>67.03219764908508</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>53.42271086201325</v>
+        <v>75.26155397405401</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>27.67551156521938</v>
+        <v>1.033749608303744</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>41.77444242177219</v>
+        <v>17.32542667844449</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>46.25764374513287</v>
+        <v>29.01761174956302</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>26.1260525673614</v>
+        <v>0.3777810609295393</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>41.6132562279719</v>
+        <v>36.45874249837858</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>46.66618583623699</v>
+        <v>37.18245709193251</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>35.0494905577853</v>
+        <v>5.70638595140467</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>52.15292713783946</v>
+        <v>67.52676644148099</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>57.14793972421874</v>
+        <v>64.95167879271162</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>49.16501469903115</v>
+        <v>47.94495759719368</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>56.29612430183245</v>
+        <v>65.96364303768398</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>60.20523777518814</v>
+        <v>70.45775476986465</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>30.62334871445538</v>
+        <v>3.463298092667515</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>48.65375613227534</v>
+        <v>4.262795368314681</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>55.61318622512294</v>
+        <v>7.006157554997866</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>30.76189134321967</v>
+        <v>14.59443670191772</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>44.88663627408218</v>
+        <v>43.62780073116151</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>49.48637146398987</v>
+        <v>46.4078229663611</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.00882555801574</v>
+        <v>4.126199415146385</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>43.2873932938688</v>
+        <v>37.43177943091352</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>48.58182138480786</v>
+        <v>43.08354952263117</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>37.0913194444685</v>
+        <v>4.53078154011266</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>54.14141518190025</v>
+        <v>64.96664967416774</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>59.3065441818722</v>
+        <v>67.69401912632875</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>50.73241067954037</v>
+        <v>51.50377972007359</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>58.434473715088</v>
+        <v>68.54043660111118</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>62.56996479980809</v>
+        <v>77.78495179178329</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>32.74680831849845</v>
+        <v>17.7831643039805</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>51.68306623723403</v>
+        <v>67.32166332823908</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>58.32741686013233</v>
+        <v>70.00171096780112</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>34.04021965167017</v>
+        <v>17.72750996261134</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>31.19416114654204</v>
+        <v>0.5766984367006351</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>47.76227812946821</v>
+        <v>36.88904100459715</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>53.25601175791653</v>
+        <v>40.18266908635181</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>41.49929432969144</v>
+        <v>5.11417565359648</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>59.54759203786696</v>
+        <v>69.11776376768947</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>65.05678158649366</v>
+        <v>75.27441140603415</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>56.90316147383933</v>
+        <v>68.3074629590518</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>64.88272590936032</v>
+        <v>84.521703741986</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>69.06922991487234</v>
+        <v>89.30862162614373</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>36.68811579949931</v>
+        <v>15.81900386800484</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>56.99059958812366</v>
+        <v>71.72134585940944</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>64.08202136728963</v>
+        <v>75.2626555246173</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>16.04258593943532</v>
+        <v>6.470099868093321</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.99018438367988</v>
+        <v>4.599244505778429</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>33.78000484697974</v>
+        <v>10.36802133340172</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>13.13491509061859</v>
+        <v>-1.271169252832475</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>27.32064361315176</v>
+        <v>9.952295437889873</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>32.79676992823424</v>
+        <v>9.73908364164711</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>20.95702508792129</v>
+        <v>1.680884287221815</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>36.76137306117779</v>
+        <v>18.59740146781036</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>42.11093781939788</v>
+        <v>20.77345800099091</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>35.78233712341918</v>
+        <v>22.5239138697515</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>42.49010109154011</v>
+        <v>28.35112786839069</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>46.65725913573493</v>
+        <v>27.95702976209894</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>18.89999755942872</v>
+        <v>3.229410629896364</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>35.53269623768305</v>
+        <v>8.053062325284042</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>42.92542160615064</v>
+        <v>10.3866968782443</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>19.44533554200618</v>
+        <v>9.331698554780905</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>32.45040030542028</v>
+        <v>24.13603276412364</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>37.42425655441789</v>
+        <v>33.5593996269055</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15.43381967686546</v>
+        <v>3.248104891813465</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.42971401002415</v>
+        <v>18.9551019271609</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>35.22279770199165</v>
+        <v>28.82741164553505</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>23.43733495539671</v>
+        <v>5.166604172967684</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>39.22339710906176</v>
+        <v>32.13988077754269</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>44.81945715343534</v>
+        <v>48.97688393736462</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>37.77399822965113</v>
+        <v>34.58459878777196</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>45.10928382736592</v>
+        <v>50.47305981999369</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>49.48579233109326</v>
+        <v>59.0797179326344</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>21.25867550856007</v>
+        <v>7.793874071976287</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>38.83167595190208</v>
+        <v>40.2683367662293</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>45.95276217419195</v>
+        <v>49.36544791687338</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>24.22837478740647</v>
+        <v>9.065540186067912</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>38.32000109590562</v>
+        <v>27.58984833206135</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>43.54608413224151</v>
+        <v>38.64349004935062</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>20.29086871264096</v>
+        <v>0.4120443150433424</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>35.73306952382062</v>
+        <v>26.47615976821897</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>41.67394651514277</v>
+        <v>34.46678608123665</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.63921156791726</v>
+        <v>3.38560222597113</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>46.58770907226759</v>
+        <v>46.37591691264815</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>52.44800664693896</v>
+        <v>59.45974088612009</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>45.69133892645861</v>
+        <v>58.15598064128113</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>53.29460662419598</v>
+        <v>70.51323630100346</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>57.74219330274302</v>
+        <v>74.88652006469536</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>26.79000426255875</v>
+        <v>9.930820398570063</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>45.94062289841826</v>
+        <v>57.0347722851123</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>53.45741180754189</v>
+        <v>68.22447503968444</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>15.33674867859908</v>
+        <v>3.140643459185139</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.41792333381924</v>
+        <v>6.226432798789215</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>34.6203869258895</v>
+        <v>8.445872852507474</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>12.42339743710368</v>
+        <v>-1.42249520064404</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>27.84401795458065</v>
+        <v>9.420422896654426</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>33.79971075413714</v>
+        <v>9.737564166217481</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>20.58697790212281</v>
+        <v>1.685623174039982</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>37.80910497348962</v>
+        <v>16.79300334553665</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>43.63144496725907</v>
+        <v>14.71751039074362</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>36.67386194572947</v>
+        <v>13.60017913596984</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>44.01279016784492</v>
+        <v>15.7387140448782</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>48.66219329676316</v>
+        <v>15.15969712640358</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>18.88375163535852</v>
+        <v>6.381972923627131</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.69534498096867</v>
+        <v>11.01102979382191</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>44.71079918030144</v>
+        <v>11.83707396285561</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>18.71236903863121</v>
+        <v>1.640744339237745</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>32.83644690490898</v>
+        <v>7.002673026115357</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>38.20122357104029</v>
+        <v>17.99115562351974</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>14.61758031850227</v>
+        <v>-0.759591048089522</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.82939014513653</v>
+        <v>1.11922128469158</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>36.08071639503336</v>
+        <v>11.32559697784934</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>22.9378912329118</v>
+        <v>1.357280292786562</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>40.12538487300594</v>
+        <v>9.520728325755146</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>46.16966446970638</v>
+        <v>28.34450614395293</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>38.57183775721854</v>
+        <v>14.07265965224027</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>46.53687790954925</v>
+        <v>25.04881417528075</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>51.43685399722498</v>
+        <v>41.13779452975409</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>21.17739477629052</v>
+        <v>1.869419037327059</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>39.98388525007815</v>
+        <v>12.52586431653225</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>47.67362788217467</v>
+        <v>13.2076343188314</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>23.21486751204167</v>
+        <v>2.560935282204625</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>38.44312700984282</v>
+        <v>6.226443042301472</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>44.18087666665235</v>
+        <v>25.1459072453111</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>19.01531372891652</v>
+        <v>-3.229038625836001</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>35.70154632446391</v>
+        <v>3.408284768906732</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>42.23428867004595</v>
+        <v>21.48387367307417</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.75503676463228</v>
+        <v>-0.3800085973290876</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>47.11367482822045</v>
+        <v>13.04073123588581</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>53.56188844274192</v>
+        <v>48.02093483448962</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>46.19962705365555</v>
+        <v>18.75194714770312</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>54.51670515361626</v>
+        <v>45.38451248688294</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>59.51491377151038</v>
+        <v>65.41024822548577</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>26.34335916929898</v>
+        <v>-1.969644861272709</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>46.72061281143748</v>
+        <v>11.10663018135298</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>54.96539322001676</v>
+        <v>26.1449771677084</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>24.41008682080276</v>
+        <v>11.31304695952691</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>39.16057742155025</v>
+        <v>23.10914973689306</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>44.1009953256035</v>
+        <v>38.66700562857821</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>22.90370900036663</v>
+        <v>4.406616762466538</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>39.18661255651413</v>
+        <v>46.57657032604188</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>44.77495477976387</v>
+        <v>47.17352269605774</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>31.77063440148511</v>
+        <v>6.723414058702669</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>49.66493841322935</v>
+        <v>66.95510070745001</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>55.13976483648329</v>
+        <v>70.6972274564212</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>47.4790325468746</v>
+        <v>58.30595526084549</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>54.75833490196957</v>
+        <v>63.48884411523156</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>58.92858869744532</v>
+        <v>63.02965967339118</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.21497651455498</v>
+        <v>18.61608640874274</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>47.14876478291247</v>
+        <v>37.98811201458559</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>55.05125527740496</v>
+        <v>71.57208198593146</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>26.06907693950818</v>
+        <v>9.669198306741009</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>40.8199509789122</v>
+        <v>32.723986386178</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>45.83769836295983</v>
+        <v>34.55504971015777</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>23.28226935923291</v>
+        <v>-0.372887548388821</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>39.3039634144138</v>
+        <v>30.17607793737015</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>45.09702434787256</v>
+        <v>32.05630017788864</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.15506211919516</v>
+        <v>2.179747682845779</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>49.95491326164512</v>
+        <v>51.16080069760972</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>55.56844202974958</v>
+        <v>54.84660507179895</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>47.44752319437038</v>
+        <v>46.10363790873123</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>55.3024075373614</v>
+        <v>56.79614968087705</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>59.67903231626404</v>
+        <v>61.86059088933241</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.7909773799283</v>
+        <v>16.32017436672771</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>48.61607589991105</v>
+        <v>53.93141035646286</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>56.06624800166723</v>
+        <v>57.8196470368122</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>30.2251387045708</v>
+        <v>12.18386089776648</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>46.00702359866385</v>
+        <v>34.52931743549631</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>51.37812661977549</v>
+        <v>42.49931877599374</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>27.51401192002506</v>
+        <v>0.6303163768591951</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>44.92650106830478</v>
+        <v>37.11019138831394</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>50.96360625503529</v>
+        <v>39.77087790411981</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>37.76637397261863</v>
+        <v>5.860040291654855</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>56.66328819055376</v>
+        <v>63.25687728775034</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>62.65803935038066</v>
+        <v>73.91513879823323</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>54.90457923591489</v>
+        <v>67.0673358113291</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>63.08587149961959</v>
+        <v>77.24371522698065</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>67.54301278288767</v>
+        <v>80.74635264757319</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>33.79388894805373</v>
+        <v>14.89001590910718</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>55.17162875183047</v>
+        <v>67.07153438305531</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>63.10449006178099</v>
+        <v>75.73497996554821</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>7.603191068329276</v>
+        <v>5.592497287626092</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>19.90410964798501</v>
+        <v>6.96118246352744</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>24.86586330164704</v>
+        <v>12.35501871742569</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>4.476617415295965</v>
+        <v>-1.06150502201746</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>17.79700889664678</v>
+        <v>4.509965763611827</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>23.48987494714222</v>
+        <v>8.400968811887356</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>11.19335212560911</v>
+        <v>1.955696473309807</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.31703293750424</v>
+        <v>12.75568856074974</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>31.87286049502714</v>
+        <v>17.59645715428104</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>26.10817414326928</v>
+        <v>15.48054843972767</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>32.59263669101332</v>
+        <v>19.09688071015132</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>37.00783054820731</v>
+        <v>21.92287268591487</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>9.992892505285745</v>
+        <v>4.873301434744317</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>26.04345849679802</v>
+        <v>12.70869778105764</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>33.54451296464383</v>
+        <v>10.96046013126097</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>10.44515964674611</v>
+        <v>5.526287993641969</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>22.76191080268341</v>
+        <v>14.25496381659254</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.95399561904426</v>
+        <v>27.15276221701891</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>6.227102140101201</v>
+        <v>0.3258243985031051</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>19.30826590015708</v>
+        <v>6.423712867568714</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.37316640081619</v>
+        <v>22.18417313339712</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>13.07931330531185</v>
+        <v>0.8796616666256547</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.14928556724469</v>
+        <v>11.43056619131608</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>33.99324264417521</v>
+        <v>38.62074606924845</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>27.56776953644848</v>
+        <v>15.63364972065364</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>34.62862422876928</v>
+        <v>28.21961142543707</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>39.29379444820213</v>
+        <v>41.65406839497214</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>11.80460833113688</v>
+        <v>3.630527749522916</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.7209214495765</v>
+        <v>22.14462534155167</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>36.05269165532388</v>
+        <v>34.63325750653223</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>15.62101441277413</v>
+        <v>11.15837749176512</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.09843146195356</v>
+        <v>20.95098640561508</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>34.5387324088271</v>
+        <v>35.64794942119495</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>11.37533320338949</v>
+        <v>0.7024520079373495</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>26.02587102170138</v>
+        <v>14.23806654456901</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.23841475500358</v>
+        <v>28.31944742152239</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>19.66178354129548</v>
+        <v>5.263313098802893</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>35.96026976191196</v>
+        <v>26.93700653502014</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>42.07426125951464</v>
+        <v>51.49497925648349</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>35.85818809763946</v>
+        <v>30.68834070174637</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>43.213404749324</v>
+        <v>40.5592308825419</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>47.9740071241842</v>
+        <v>65.5617280010981</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>17.7136914661384</v>
+        <v>15.76087030422927</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>36.2424314205926</v>
+        <v>35.28506997259568</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>43.98348259093093</v>
+        <v>50.925318703616</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>11.35394236391879</v>
+        <v>2.174358496123755</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.54239935963127</v>
+        <v>-1.806387440347866</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>30.35836037801097</v>
+        <v>5.406262061974235</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>8.669737562296927</v>
+        <v>-4.200178500436145</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>24.13409483596372</v>
+        <v>1.74781373864343</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.59987054277134</v>
+        <v>3.367354580177921</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>16.34588492362351</v>
+        <v>1.893746670204131</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>33.66072717896479</v>
+        <v>10.97725213269232</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>39.04700092655537</v>
+        <v>11.62569401687151</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>32.78597286157836</v>
+        <v>0.02201741817237135</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>39.97221381548672</v>
+        <v>4.820352835923202</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>44.15916207493105</v>
+        <v>14.61488192550986</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>14.48126033606442</v>
+        <v>-1.229994097526689</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>32.8559811407826</v>
+        <v>-1.540366151826351</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>40.12025542572528</v>
+        <v>2.085069366818541</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>15.19026841634024</v>
+        <v>16.81755489078306</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.39621013354979</v>
+        <v>34.43813570842637</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>34.38571063284054</v>
+        <v>38.68613996643669</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>11.27676165980472</v>
+        <v>4.939523467839745</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.50536365133527</v>
+        <v>25.84154225962804</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.29039234710958</v>
+        <v>32.06186547441704</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>19.18483847474868</v>
+        <v>10.29650817028402</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>36.44479424491987</v>
+        <v>48.59845499436475</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>42.05980822777245</v>
+        <v>57.45524531202524</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>35.12105440321476</v>
+        <v>46.58649292857686</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>42.88705416618036</v>
+        <v>54.05580252146594</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>47.31210648307008</v>
+        <v>59.74474543864424</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>17.30095063827503</v>
+        <v>16.61717477791886</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.55799992489916</v>
+        <v>49.13450713388467</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>43.57886581879616</v>
+        <v>51.3299752424729</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>19.89726997490508</v>
+        <v>18.26076978217767</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>35.24682729246752</v>
+        <v>37.31461498759764</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>40.53574499047826</v>
+        <v>47.32148013703957</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>15.89099764699496</v>
+        <v>2.221698262303125</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>32.68561897649516</v>
+        <v>31.88826741211009</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>38.64295507549606</v>
+        <v>36.68085884655061</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>25.24940402621316</v>
+        <v>7.842508148565315</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>43.70714835711428</v>
+        <v>58.62906516992363</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>49.65860436329124</v>
+        <v>68.61195448276079</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>42.9724043780938</v>
+        <v>63.96720457147026</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>51.08469146758126</v>
+        <v>75.90441230688089</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>55.60402941910461</v>
+        <v>79.82871871604706</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>22.69065466618007</v>
+        <v>13.64134236722976</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>43.56453016815531</v>
+        <v>62.08196445351631</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>51.01809195090598</v>
+        <v>66.3867354836908</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1.124922609242035</v>
+        <v>11.97086037630434</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>14.62372739053769</v>
+        <v>13.0643387917813</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>19.54556865271048</v>
+        <v>15.42954820969419</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-2.214288264522857</v>
+        <v>1.803651691952179</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>12.46623655208939</v>
+        <v>12.49093576119294</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>18.07189490747156</v>
+        <v>12.55167119954345</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>4.773427007254049</v>
+        <v>9.073132992670839</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>21.31963324723252</v>
+        <v>23.9696908145913</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>26.83406967813906</v>
+        <v>23.0404927632917</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.64208084775357</v>
+        <v>22.91425268156934</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.55151681941567</v>
+        <v>27.17078306929804</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>32.83406437032514</v>
+        <v>28.58070891741135</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>4.471558370927153</v>
+        <v>12.0393295874139</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>21.89389898029264</v>
+        <v>17.32918417347017</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.23298290501016</v>
+        <v>16.9075479909209</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>3.335907812917509</v>
+        <v>4.45035916363118</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>16.80161401533041</v>
+        <v>9.876782714813778</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>21.94698917047486</v>
+        <v>16.90552364357304</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-1.230215434815193</v>
+        <v>-3.519392121025156</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>13.13644211180698</v>
+        <v>1.120308773583776</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>19.11720319765387</v>
+        <v>12.78747644633649</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>5.855321790715561</v>
+        <v>-2.088995972853191</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>22.28635650300906</v>
+        <v>8.742799095632503</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.08769267880441</v>
+        <v>26.11388373988194</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>22.30634372822906</v>
+        <v>12.63025167840885</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.81816810535597</v>
+        <v>20.16759599227044</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>34.34360681770004</v>
+        <v>29.47077679342586</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>5.654183862107113</v>
+        <v>-0.6596529915331111</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>23.92398799620842</v>
+        <v>11.19199487030468</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.05392485710149</v>
+        <v>18.04875804660483</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>9.922293146868558</v>
+        <v>16.02291797220552</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>24.63399429977323</v>
+        <v>26.25910799130883</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>30.03140198464899</v>
+        <v>31.98548902509933</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>5.400322208026757</v>
+        <v>-0.0512155572410613</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>21.4345298792777</v>
+        <v>16.63928734058745</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>27.53967401416094</v>
+        <v>22.27597423953882</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>14.08045668319215</v>
+        <v>5.706511202290127</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>31.83571917911262</v>
+        <v>35.34205823705487</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>37.91503057216945</v>
+        <v>46.91116681291622</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>32.29247101703646</v>
+        <v>43.21842828183092</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>40.13990687533032</v>
+        <v>46.64873360268346</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>44.74749140895555</v>
+        <v>59.53143507938287</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>12.99951359201589</v>
+        <v>12.67429957391506</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>33.03522095841349</v>
+        <v>38.05633888620838</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>40.54035251440006</v>
+        <v>42.08829613838274</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>0.408952138140287</v>
+        <v>3.335660788830463</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>12.87392084292867</v>
+        <v>2.100465784972776</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>17.37703994272675</v>
+        <v>1.590416743595821</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-2.841180117929366</v>
+        <v>-1.860256625698629</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.68345923787323</v>
+        <v>1.036053309466478</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>15.78702296650149</v>
+        <v>-0.5334935551490929</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>3.545266771921445</v>
+        <v>5.566321273869828</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>18.8695936447488</v>
+        <v>8.029290568144273</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>23.93021973788935</v>
+        <v>3.852742806784928</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>19.07999414552418</v>
+        <v>4.987840158052283</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.5600394144617</v>
+        <v>3.797332617491019</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.59642053005968</v>
+        <v>5.139289938122545</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>3.416954919725739</v>
+        <v>4.452614467890886</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.40536163296409</v>
+        <v>6.194991884550895</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.21898814315078</v>
+        <v>2.592308215873182</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>2.742277250122314</v>
+        <v>-0.3251179512702542</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>15.17374955781255</v>
+        <v>1.006447107707654</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.90728794165791</v>
+        <v>1.722819356863518</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-1.650694169954884</v>
+        <v>-2.147473625088768</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>11.57469112273387</v>
+        <v>-4.03688151775447</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>17.05845181523787</v>
+        <v>1.088821903332196</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>4.861288438620055</v>
+        <v>-1.466316869751783</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>20.08031123933672</v>
+        <v>1.892038590767093</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.42815955804095</v>
+        <v>6.127977982860322</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>20.02291918930958</v>
+        <v>5.159503952942803</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>27.06401318662986</v>
+        <v>7.416945640614131</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>31.34069656056012</v>
+        <v>7.065052864784608</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>4.805067789728775</v>
+        <v>-1.958643390651613</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.59517928680178</v>
+        <v>3.009580394198967</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.2372283478388</v>
+        <v>2.763307772402843</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>9.320707093287645</v>
+        <v>17.5026689459208</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.93977175368781</v>
+        <v>20.99092795034678</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.92476751419977</v>
+        <v>23.32533026115637</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>4.865999675236174</v>
+        <v>3.766638141753592</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>19.68841184914893</v>
+        <v>11.36695578549876</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.30287740076485</v>
+        <v>14.89511970244422</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>12.92559758454445</v>
+        <v>8.535900754523613</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.39988736968471</v>
+        <v>28.24932374972434</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>35.02766642859177</v>
+        <v>31.60845372215853</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.68495428125075</v>
+        <v>30.59615423535439</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>37.05642070028303</v>
+        <v>31.48841810624027</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>41.41245090382341</v>
+        <v>37.99706672097162</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>11.99478167655931</v>
+        <v>19.70436039443063</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>30.43630052795309</v>
+        <v>27.15532083858042</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>37.45503399749682</v>
+        <v>29.5220945213808</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>19.82570104817545</v>
+        <v>22.03747234727089</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>33.78028109601307</v>
+        <v>30.66230196121852</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>39.0552845483373</v>
+        <v>38.11729693046033</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>16.44950346092116</v>
+        <v>5.301864551425023</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>31.72333972800133</v>
+        <v>21.98528957999333</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>37.77877126686223</v>
+        <v>27.89323354732345</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.03452051618293</v>
+        <v>13.50976980304971</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>42.13784182054716</v>
+        <v>43.14383475432864</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>48.03947278599148</v>
+        <v>49.5725867304437</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>40.81413317401062</v>
+        <v>41.6200484685845</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>48.00145149461317</v>
+        <v>47.61328380089743</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>52.62145985014655</v>
+        <v>50.47499994012284</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>23.19530576502099</v>
+        <v>28.97120088608488</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>40.87349450213566</v>
+        <v>52.4828990253791</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>49.03352864087094</v>
+        <v>58.93140685189697</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>22.52364870078262</v>
+        <v>12.56672235482671</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>36.51090881641527</v>
+        <v>23.81632382895524</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>41.96438333424103</v>
+        <v>30.09249669650793</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>17.96800208618496</v>
+        <v>-2.294960754075436</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>33.01353365550949</v>
+        <v>7.935638429221765</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>39.38216183426086</v>
+        <v>14.3002697581138</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.65603596512383</v>
+        <v>2.905746240959111</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>43.7117682056974</v>
+        <v>24.26108479418115</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>49.85419739202877</v>
+        <v>35.08951292684487</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>42.01952366038802</v>
+        <v>28.415697142384</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>49.85297130147639</v>
+        <v>34.9490825504953</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>54.71159876096458</v>
+        <v>42.31965896137739</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>24.78215301673347</v>
+        <v>14.45670975981629</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>43.46467578514955</v>
+        <v>38.10896392006561</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>51.30401491665203</v>
+        <v>44.38890350298203</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.56174628490634</v>
+        <v>22.9181654438121</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>42.70730667556224</v>
+        <v>35.70912851823924</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>48.49706553831616</v>
+        <v>45.87265128068405</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.92878952966048</v>
+        <v>2.592834660014102</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>39.5085939805243</v>
+        <v>21.19785754895853</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>46.11616315081762</v>
+        <v>27.25579916891642</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.08136607644675</v>
+        <v>11.84886432513287</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>51.37265492577797</v>
+        <v>46.08069395900368</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>57.87348072582711</v>
+        <v>57.66288022048488</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>50.29285014524513</v>
+        <v>59.6010716107764</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>58.4418221656839</v>
+        <v>65.91622922113923</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>63.40492021671518</v>
+        <v>69.60195885412351</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>30.49040833242575</v>
+        <v>24.93668716162216</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>50.82450215234774</v>
+        <v>52.86620300910593</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>59.18559704786477</v>
+        <v>65.04618792632277</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>10.22148315178424</v>
+        <v>13.85396582870504</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>24.351845840803</v>
+        <v>32.92514256203711</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.47444598117944</v>
+        <v>40.35790448639891</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>7.51085530374685</v>
+        <v>5.549999047422244</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>22.88290567336923</v>
+        <v>34.82656220422817</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.75772251293784</v>
+        <v>38.95941494910942</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>15.05245865224561</v>
+        <v>11.3615237943548</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>32.3164548440521</v>
+        <v>57.62337952301844</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>38.03452454977978</v>
+        <v>62.40480710396722</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>31.82862634000363</v>
+        <v>60.79196082117329</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>39.01405362880049</v>
+        <v>67.79357737092658</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>43.46026310546879</v>
+        <v>65.23976049861888</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>13.39638440737289</v>
+        <v>13.04835998360461</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.96515846098423</v>
+        <v>41.1474058929598</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>39.70963754453459</v>
+        <v>49.26344417456973</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>12.41102139745188</v>
+        <v>9.86946402225897</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>26.51176590438655</v>
+        <v>31.12356365043652</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>31.82487692988747</v>
+        <v>36.31146835231932</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>8.464868271829371</v>
+        <v>1.586541613757024</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.52545224147311</v>
+        <v>22.28796053861123</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.74086309556962</v>
+        <v>32.20422756071973</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>16.08560467704555</v>
+        <v>3.016550987234833</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>33.24122523166102</v>
+        <v>39.58257978852809</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>39.20785713832934</v>
+        <v>52.79462268089137</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>32.46617161054122</v>
+        <v>43.91631013894194</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>40.2272724178866</v>
+        <v>54.25215899194284</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>44.91360300820661</v>
+        <v>61.65165520519488</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>14.53010242748445</v>
+        <v>6.913812254461032</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>33.94124777538226</v>
+        <v>44.38455451697679</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>41.43764035851384</v>
+        <v>51.70902043845371</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>17.47370120056271</v>
+        <v>9.743057021170603</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>32.78386474407071</v>
+        <v>30.98613101988296</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>38.39713723303557</v>
+        <v>42.77712143751543</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>13.50231541336719</v>
+        <v>-2.578940490873006</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>30.20768758617128</v>
+        <v>25.23284028565584</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.60843633391084</v>
+        <v>35.98081553668898</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>22.6483025637292</v>
+        <v>0.6213999152486558</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>41.07405916506537</v>
+        <v>45.65314239300889</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>47.37469083015016</v>
+        <v>65.90025262712329</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>40.87539899667691</v>
+        <v>54.61317329924239</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>48.99324330226333</v>
+        <v>69.70665226354772</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>53.78995361136683</v>
+        <v>80.77875277946849</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>20.40922265387745</v>
+        <v>5.130402817595385</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>41.5174906278335</v>
+        <v>52.46112044962979</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>49.46635876442572</v>
+        <v>63.41484572311788</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>4.515257250811804</v>
+        <v>9.250754434078811</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>20.35461879499403</v>
+        <v>25.00644258884281</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>26.04242986776333</v>
+        <v>36.35654179260344</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1.440131504402648</v>
+        <v>4.384767880522336</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>18.83500880133688</v>
+        <v>43.62692812602032</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>25.32571289081433</v>
+        <v>50.18230275492385</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>9.745414481429687</v>
+        <v>8.820969253341392</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.06179175899466</v>
+        <v>65.18742339303714</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>35.40279002815084</v>
+        <v>68.21848019013059</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.22584497002815</v>
+        <v>60.50788483611747</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>37.34120919818311</v>
+        <v>58.66432956455833</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>42.33395072336749</v>
+        <v>63.85627155711528</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>9.46803116144531</v>
+        <v>8.482271387387932</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.73242750083882</v>
+        <v>32.0068999308827</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>38.59665521785825</v>
+        <v>58.83385252275158</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>8.0905892852529</v>
+        <v>9.976755023574608</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>23.97082891745229</v>
+        <v>32.56764033847111</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.81918155951138</v>
+        <v>37.82842502135421</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>3.680467156494697</v>
+        <v>-1.719964491625703</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>20.83216046166643</v>
+        <v>24.86711891742103</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>27.63103885135843</v>
+        <v>32.56100925582369</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>12.13522852036118</v>
+        <v>-0.09631914576786116</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>31.4007849400787</v>
+        <v>45.5802876803551</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>37.97027356326343</v>
+        <v>54.13257960995166</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>31.07894704988382</v>
+        <v>43.04330461569268</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>39.88780735289462</v>
+        <v>53.52068142808396</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>45.13476204476132</v>
+        <v>61.28829629162979</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>11.79892143418852</v>
+        <v>5.434979960486121</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>33.15651049167595</v>
+        <v>45.3265454590062</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>41.62142846734391</v>
+        <v>54.40613142692459</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>13.38242592605484</v>
+        <v>10.23603531678976</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>30.47678078414195</v>
+        <v>34.0404730797086</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>36.70892610172329</v>
+        <v>42.82072122270755</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>8.941384470577386</v>
+        <v>-1.999369113329269</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>27.71653408139968</v>
+        <v>31.82719835403958</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>34.78911684639824</v>
+        <v>40.6176980874906</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>18.97923361034832</v>
+        <v>0.7183614047308993</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>39.53654101525939</v>
+        <v>54.03944701621707</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>46.51786952958168</v>
+        <v>65.96007026474945</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.9261185002676</v>
+        <v>64.42748337919777</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>49.09297394400038</v>
+        <v>76.56808591549704</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>54.43159598216838</v>
+        <v>80.68423452229986</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>17.88920289544849</v>
+        <v>8.085181558520585</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>40.99438967416584</v>
+        <v>57.2164858451858</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>50.03428649812914</v>
+        <v>68.81745541970081</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>-33.12947004374902</v>
+        <v>19.65702684095024</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-15.3065700827458</v>
+        <v>27.03357187165262</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-8.865214969341858</v>
+        <v>37.96597211482646</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-37.68480105149309</v>
+        <v>13.33715519568316</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-18.13295935112997</v>
+        <v>53.55558820044995</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-10.81908455108037</v>
+        <v>56.32057759214365</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-30.43416253313394</v>
+        <v>15.36065634141758</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-8.691036199786945</v>
+        <v>63.1493972716852</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-1.495049025709905</v>
+        <v>68.33887597986096</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>-4.392087814011059</v>
+        <v>57.67540362836486</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>4.826114758432881</v>
+        <v>58.88868306984763</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>10.60950877929364</v>
+        <v>59.67883820773258</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-25.61939005632465</v>
+        <v>15.01550880713044</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>-2.733463127827621</v>
+        <v>33.54981358263679</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>7.224419873139557</v>
+        <v>52.99076626193087</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-27.94748090138451</v>
+        <v>23.19242252300191</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-10.0813151371667</v>
+        <v>34.79548453586877</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-3.425502709802918</v>
+        <v>40.33356664925277</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-34.02544845626439</v>
+        <v>35.02508022313185</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-14.7593911633147</v>
+        <v>49.41672793110371</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-7.056341003545288</v>
+        <v>57.73826639989367</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-26.50429636167499</v>
+        <v>10.33808675801072</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-4.819710070803342</v>
+        <v>47.67702050780439</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>2.668900787224763</v>
+        <v>57.57141576346005</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-1.194044627587594</v>
+        <v>45.66770782123611</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>8.819263078900793</v>
+        <v>54.73999316048706</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>14.89088712321942</v>
+        <v>58.36934584819465</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-21.88856412756594</v>
+        <v>22.79214913962913</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>2.243843507061421</v>
+        <v>48.28229078344162</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>11.79310071545448</v>
+        <v>55.39651796306475</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-19.91191228502863</v>
+        <v>22.83509249866307</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>-0.61730697298671</v>
+        <v>37.10882719067367</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>6.449605842576475</v>
+        <v>42.00296648698504</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>-25.95918889434528</v>
+        <v>35.96012775508511</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>-4.774560322905227</v>
+        <v>55.56432394750962</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>3.199314577301039</v>
+        <v>61.32916557117025</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>-16.5005551606748</v>
+        <v>13.4679269043923</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>6.700158227538762</v>
+        <v>60.89337551768568</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>14.63198622858932</v>
+        <v>67.2453606609787</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>10.92701384371948</v>
+        <v>68.70125906595159</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>21.34073372233672</v>
+        <v>76.89876029737997</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>27.51728032047266</v>
+        <v>81.2858108408132</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>-13.00806245449592</v>
+        <v>25.1930801353502</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>13.15729867342735</v>
+        <v>59.94186671794438</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>23.33219169091918</v>
+        <v>71.89882431358215</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>2.38026939279228</v>
+        <v>8.403661535507663</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>17.68470774096016</v>
+        <v>26.3830721640078</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>23.22606501577689</v>
+        <v>35.48965591079019</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-0.6851919971902287</v>
+        <v>1.59449508733395</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>16.00842749175335</v>
+        <v>24.6854003157902</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>22.35017381138971</v>
+        <v>31.84986108795691</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>7.11830820840077</v>
+        <v>8.069366999090878</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.80782857111615</v>
+        <v>50.80712012998769</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>31.99973869363374</v>
+        <v>55.94983646243701</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.29156788463106</v>
+        <v>56.71410269380087</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>34.07935576368783</v>
+        <v>58.51703718790841</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>38.94471852716864</v>
+        <v>61.28421043177762</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>6.69371460517126</v>
+        <v>6.955242574332711</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>26.5888447877339</v>
+        <v>41.24883952164038</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>35.09054732278118</v>
+        <v>43.67807377333479</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>5.676215293810986</v>
+        <v>9.184914223166263</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>20.99162764240155</v>
+        <v>31.80151952864363</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>26.70863775219682</v>
+        <v>35.69640664949424</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>1.296730828681214</v>
+        <v>1.881299104315186</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>17.71882105086388</v>
+        <v>23.44531425603765</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>24.38556427576024</v>
+        <v>30.50585473979287</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>9.241616084587804</v>
+        <v>2.823162755504981</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>27.8559218531098</v>
+        <v>39.24446466151912</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>34.28594143164214</v>
+        <v>52.17480216958366</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.88437534182635</v>
+        <v>42.64469929377765</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>36.31392066462588</v>
+        <v>51.50841550161485</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>41.43405545994568</v>
+        <v>58.38349461673317</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>8.80185493846556</v>
+        <v>4.875919178355961</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.65857119713337</v>
+        <v>40.12644065125092</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>37.85968597018431</v>
+        <v>50.15942235261939</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>11.02620558976671</v>
+        <v>10.30742480152522</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>27.5851110578306</v>
+        <v>31.82342158954198</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>33.65400717233109</v>
+        <v>42.30140538456284</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>6.620255073020538</v>
+        <v>0.0727886683344785</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>24.72223404956203</v>
+        <v>25.73597653657468</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>31.62367096621873</v>
+        <v>35.3367492228396</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>16.13676630055403</v>
+        <v>3.61192707736198</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>36.06540798298812</v>
+        <v>45.21991748274895</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>42.88236381214422</v>
+        <v>64.85422920385663</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>36.76827351490406</v>
+        <v>57.88239855134168</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>45.56106599043537</v>
+        <v>70.26422063855429</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>50.79008871006086</v>
+        <v>79.58222974406409</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>14.95924580898502</v>
+        <v>5.273821897230246</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>37.61333059597065</v>
+        <v>54.77757913489143</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>46.3161466833094</v>
+        <v>66.93842054132277</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>3.543407900018123</v>
+        <v>10.6659213498478</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>17.37759170759326</v>
+        <v>11.48728807665203</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>22.57176206277529</v>
+        <v>15.86877995074227</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>0.1545650345278924</v>
+        <v>0.6931034791355764</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>15.26004286385812</v>
+        <v>13.3814862952197</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.23001875856782</v>
+        <v>15.37661478631341</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>7.508640219031885</v>
+        <v>9.263873515424908</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>24.44898931054865</v>
+        <v>25.05405593404111</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>30.26131594435516</v>
+        <v>27.8271233849578</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.60023940510449</v>
+        <v>22.69419006013205</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>31.83052245428374</v>
+        <v>26.14022811654357</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>36.49609542924441</v>
+        <v>28.80481536919953</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>7.162261068620633</v>
+        <v>8.710892154756873</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.89919769274249</v>
+        <v>18.01423514701648</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>32.91601353328231</v>
+        <v>21.03488193706158</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>7.198291605135922</v>
+        <v>8.225413727222925</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>21.0695694397588</v>
+        <v>20.15922050674768</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>26.47494951150988</v>
+        <v>30.59084522838813</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>2.64574106457103</v>
+        <v>0.8548822684757837</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>17.52617813248997</v>
+        <v>12.0367570294938</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>23.84807081103724</v>
+        <v>24.85497129969259</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>10.19147764475341</v>
+        <v>3.597439328650964</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>27.08706434078678</v>
+        <v>22.15307490386219</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>33.17572072201276</v>
+        <v>43.29393148713909</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>26.78675699410842</v>
+        <v>26.59464937059885</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>34.66419971262007</v>
+        <v>38.22627059481621</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>39.58157381269243</v>
+        <v>51.79503963336899</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>9.752328853615282</v>
+        <v>3.098228707039642</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.48324306113417</v>
+        <v>30.05859907614445</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>36.23772266064895</v>
+        <v>43.60845064900489</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>12.30739221255133</v>
+        <v>14.44065852332289</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.35743517071663</v>
+        <v>27.82157346072843</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>33.08787581022565</v>
+        <v>40.14695009257146</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>7.715086796656842</v>
+        <v>1.240873394485277</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>24.15443999712715</v>
+        <v>19.15827195196637</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>30.70539481802081</v>
+        <v>32.6861669241614</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>16.69101564786666</v>
+        <v>6.854237427658784</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>34.84733163105703</v>
+        <v>35.77484874158203</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>41.28025766883238</v>
+        <v>56.01268161655496</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.13147745482761</v>
+        <v>44.36118233740736</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>43.31822381254671</v>
+        <v>53.28472789960786</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>48.32558744901178</v>
+        <v>64.83557282358551</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>15.4958921495535</v>
+        <v>4.615545733422916</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>35.927762094664</v>
+        <v>36.95772153639207</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>44.1793088187416</v>
+        <v>58.42989870910277</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>-33.86346509013028</v>
+        <v>16.55629949644913</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-16.14567585028386</v>
+        <v>20.67767956366088</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>-9.69173556719964</v>
+        <v>24.75218160409585</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>-38.49128560714951</v>
+        <v>1.503535474705199</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-19.06070417038976</v>
+        <v>28.07938315143917</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-11.72742574440557</v>
+        <v>29.2680910601807</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-31.32665678689573</v>
+        <v>12.24691551240515</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-9.704357575105869</v>
+        <v>44.26531420758418</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-2.493372069618474</v>
+        <v>46.73741903920869</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-5.291635145733775</v>
+        <v>33.26015278642646</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>3.886055403514301</v>
+        <v>37.31682151150878</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>9.681752126348208</v>
+        <v>41.56202782995676</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-26.37534256726545</v>
+        <v>14.22527544688023</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-3.624243976227934</v>
+        <v>34.45744945579854</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>6.340301624872063</v>
+        <v>42.50354755659207</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-28.69551442057433</v>
+        <v>10.0495296408902</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-10.93336349822451</v>
+        <v>23.92124109501621</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>-4.260350845811955</v>
+        <v>34.21852253502237</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-34.83809836642958</v>
+        <v>4.091811226552263</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-15.69213440145923</v>
+        <v>18.00166723653335</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>-7.964922339945595</v>
+        <v>36.68028852057662</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-27.40569717741035</v>
+        <v>1.203103775639146</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-5.840752109048122</v>
+        <v>30.51322318150917</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>1.667990042352511</v>
+        <v>47.07185829527638</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-2.102530724854457</v>
+        <v>27.40111827552245</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>7.872973181501398</v>
+        <v>39.70420743715353</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>13.95660316687639</v>
+        <v>56.38441710606196</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>-22.66507343436724</v>
+        <v>6.437454782802849</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>1.332822342314121</v>
+        <v>34.88664655135356</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>10.89430447888326</v>
+        <v>45.10713706671437</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>-20.58465919371683</v>
+        <v>13.92376577172679</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-1.388293716296874</v>
+        <v>26.19223677006307</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>5.691877654435713</v>
+        <v>34.28684850069706</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-26.68651907242231</v>
+        <v>2.254798829613769</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-5.61638689793533</v>
+        <v>20.40889307727369</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>2.378832141010704</v>
+        <v>33.02923636942458</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>-17.31114031812695</v>
+        <v>5.805414959113929</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>5.777398860839045</v>
+        <v>40.48089239109044</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>13.72399787052925</v>
+        <v>52.58012196323573</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>10.10551376960843</v>
+        <v>45.82626886277288</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>20.47904225096075</v>
+        <v>54.59105483184143</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>26.66874007984312</v>
+        <v>67.42751549014446</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>-13.70052781102359</v>
+        <v>6.805501664605526</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>12.33775564424628</v>
+        <v>33.46123033340346</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>22.52245432229613</v>
+        <v>53.6456239678498</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>14.90820301215613</v>
+        <v>16.00447263246994</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.24726208386431</v>
+        <v>27.48544452820385</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>34.37869260714785</v>
+        <v>35.8459873185917</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>11.94462721672938</v>
+        <v>3.887997771844951</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>27.76853036345904</v>
+        <v>42.08419301884079</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>33.6017798650919</v>
+        <v>46.84427080909662</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>20.33697854899706</v>
+        <v>12.54308204220403</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>37.84038531921892</v>
+        <v>66.4307373378866</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>43.56210891690357</v>
+        <v>66.13626876001634</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>36.77044626334693</v>
+        <v>58.7358269733146</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>44.04670347765875</v>
+        <v>57.47495202337795</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>48.49263718402786</v>
+        <v>63.89439919901434</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>18.49213880104219</v>
+        <v>15.81261996938325</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>36.704825706668</v>
+        <v>21.92714154114937</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>44.99765438696395</v>
+        <v>66.55471306088754</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>17.56867190091753</v>
+        <v>21.78831495309656</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>31.92432330355636</v>
+        <v>36.62895481176496</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>37.20096826797736</v>
+        <v>39.44057372855582</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>13.38626975432366</v>
+        <v>5.287976665933972</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.94714297646854</v>
+        <v>29.289258439198</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.06044854169387</v>
+        <v>36.05596538010712</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>21.90815858417427</v>
+        <v>8.516389943527386</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>39.34596038658169</v>
+        <v>47.89938475268707</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>45.27413026493038</v>
+        <v>56.89243556151583</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>37.93546155896047</v>
+        <v>48.10317533539002</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>45.82320850896873</v>
+        <v>55.57920730621971</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>50.48717580636281</v>
+        <v>62.4120422987918</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>20.15474815697854</v>
+        <v>20.0682374712435</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.33763423596164</v>
+        <v>48.31492008137459</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>47.22821389363166</v>
+        <v>55.66439434176726</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>22.25015449671741</v>
+        <v>22.80817386939465</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>37.72391862016886</v>
+        <v>37.45783686026907</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>43.31599618753037</v>
+        <v>43.12418566200442</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>18.04214805117846</v>
+        <v>4.642477894480567</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>35.10819043912889</v>
+        <v>32.51798111665885</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>41.42485222910104</v>
+        <v>39.21874590016256</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>27.97433823736124</v>
+        <v>10.52151943653664</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>46.59644916897716</v>
+        <v>57.4085406628074</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>52.86622620755757</v>
+        <v>69.02343185049654</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>45.81941231138621</v>
+        <v>66.72793326204138</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>54.04228975218052</v>
+        <v>72.54399829327694</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>58.79371016334035</v>
+        <v>78.52555386047966</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>25.51815079835301</v>
+        <v>18.5606111834155</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>46.33400870487002</v>
+        <v>57.25943463540163</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>54.69940815645131</v>
+        <v>67.62386864155077</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>6.558299374642284</v>
+        <v>7.513094286771366</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>21.73227573212235</v>
+        <v>24.5056161436281</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>27.18028717899152</v>
+        <v>31.73927778296575</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>3.583340624101198</v>
+        <v>2.069941599641247</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>20.13293646625727</v>
+        <v>27.38444128931081</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>26.37941294523213</v>
+        <v>30.93260016358865</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>11.55317623047672</v>
+        <v>7.426387949332426</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>30.07555988509337</v>
+        <v>48.12398449977016</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>36.16497078088337</v>
+        <v>52.9877852189144</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>30.08177465841284</v>
+        <v>51.88390514632187</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>37.80635245808755</v>
+        <v>58.05013431949745</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>42.63320052189072</v>
+        <v>56.20577311214959</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>10.564060215769</v>
+        <v>6.203927555062908</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>30.31597419288136</v>
+        <v>37.9244483573172</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>38.67954328541987</v>
+        <v>38.72213487707265</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>9.805970892322364</v>
+        <v>8.81209715788609</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>24.9998208235949</v>
+        <v>31.54091246183143</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>30.62013449041264</v>
+        <v>34.28810766051773</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>5.540254101332315</v>
+        <v>4.036908272487452</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>21.83186974374236</v>
+        <v>26.08204094509479</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.39404411944869</v>
+        <v>33.490418557609</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>13.6464671606879</v>
+        <v>7.527956806185632</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>32.10419583165246</v>
+        <v>42.40659996512926</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>38.42915986121018</v>
+        <v>57.36808746450058</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>31.66812798075717</v>
+        <v>45.91686228843813</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>40.02726811014568</v>
+        <v>57.24833620551134</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>45.10872447749118</v>
+        <v>63.39991939028619</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>12.65518714939244</v>
+        <v>7.173569708547451</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>33.38288836323881</v>
+        <v>49.28712943220732</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>41.43982879677554</v>
+        <v>52.49790571341842</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>14.61299140411131</v>
+        <v>11.45626369769424</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>31.011834582003</v>
+        <v>30.79959419123979</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>36.9843594608468</v>
+        <v>40.19786204884424</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>10.29335276872829</v>
+        <v>0.7564615311427154</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>28.21728562100841</v>
+        <v>24.30277921282515</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>35.02089901509357</v>
+        <v>34.66330654476209</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>19.92284450156969</v>
+        <v>5.884912442165966</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>39.65324918150321</v>
+        <v>41.3310572254328</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>46.36211406414566</v>
+        <v>62.64464438618786</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>39.90867811354946</v>
+        <v>56.64038692224401</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>48.6285915377729</v>
+        <v>68.40039899372101</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>53.81766245952598</v>
+        <v>77.95277369343252</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>18.24911348419183</v>
+        <v>5.064421313967134</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>40.70203981792614</v>
+        <v>48.04043123525359</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>49.27789756981946</v>
+        <v>62.09478491736728</v>
       </c>
     </row>
   </sheetData>
